--- a/hiqu/Performance Evaluation/September 2024/Dev/Abid Ali.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Abid Ali.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\ScoreCard.Arshad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8B7CEC-62A1-4AEC-9A96-0048FEFDB946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C2575F-38F0-4146-86A3-F6A6DBEAA180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>Employee Name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Diff %</t>
   </si>
   <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>Overall Performance</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>APWORKS 2024.2 - PHASE 3</t>
   </si>
   <si>
-    <t>Add Media Type/S</t>
-  </si>
-  <si>
     <t>Project Overhead</t>
   </si>
   <si>
@@ -291,12 +285,6 @@
     <t>Design</t>
   </si>
   <si>
-    <t>NEXELUS 2024.2</t>
-  </si>
-  <si>
-    <t>Production Issue</t>
-  </si>
-  <si>
     <t>Dev Manager</t>
   </si>
   <si>
@@ -318,20 +306,57 @@
     <t>Client Items</t>
   </si>
   <si>
-    <t>Google Drive integration</t>
-  </si>
-  <si>
-    <t>Broadcast Invoices</t>
+    <t>Ability to assign Employees to Roles by Media type and by Client</t>
+  </si>
+  <si>
+    <t>Ability to automatically attach additional documents to Invoice</t>
+  </si>
+  <si>
+    <t>Add Media Type/Service type/Roles</t>
+  </si>
+  <si>
+    <t>Associate vendor/stations/sites to multiple pay to</t>
+  </si>
+  <si>
+    <t>Broadcast Invoice: Invoice View UI</t>
+  </si>
+  <si>
+    <t>Broadcast Invoice: Manage Invoice Models List</t>
+  </si>
+  <si>
+    <t>Broadcast Invoice: PDF file generation</t>
+  </si>
+  <si>
+    <t>Route invoice from one company to another</t>
+  </si>
+  <si>
+    <t>Vendor Inv: Select Client on Header</t>
+  </si>
+  <si>
+    <t>Dev Support</t>
+  </si>
+  <si>
+    <t>PR-0013</t>
+  </si>
+  <si>
+    <t>Meetings, mails, communication, TFS, Interviews</t>
+  </si>
+  <si>
+    <t>Session with US team</t>
+  </si>
+  <si>
+    <t>Hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +436,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -456,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -579,8 +610,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -588,8 +687,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -618,12 +718,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,9 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -674,15 +765,76 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -690,22 +842,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -726,15 +866,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Currency 2" xfId="3" xr:uid="{8180B592-B2B1-4676-AFAD-227D0E36D85D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C6FF6618-242E-45B7-94CB-EA40EC999215}"/>
@@ -1078,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,30 +1236,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="39"/>
+      <c r="B2" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="60"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
+      <c r="C5" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -1121,11 +1267,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="C6" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -1133,11 +1279,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="C7" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -1145,11 +1291,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1157,334 +1303,338 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
+      <c r="C9" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="45">
+        <v>60</v>
+      </c>
+      <c r="C10" s="63">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.2136986301369863</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+        <v>1.2657534246575342</v>
+      </c>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
+      <c r="C11" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="33">
+        <v>0.95</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="34">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="33">
+        <v>0.85</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="34">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="J20" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="57"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="34">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="33">
+        <v>0.95</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="57"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="J22" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="34">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="33"/>
+      <c r="J23" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="57"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="34">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="36">
-        <v>0.9</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="36">
-        <v>0.95</v>
-      </c>
-      <c r="J16" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="37">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="J17" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="37">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="36">
-        <v>0.9</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="36">
-        <v>0.85</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="37">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="36">
-        <v>0.9</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="J19" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="37">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="36">
-        <v>0.9</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="J20" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="37">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="36">
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="36">
-        <v>0.95</v>
-      </c>
-      <c r="J21" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="37">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="J22" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="37">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="36"/>
-      <c r="J23" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="37">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="E27" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="G27" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="H27" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="I27" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="K27" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="L27" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="31" t="s">
+      <c r="M27" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="N27" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="N27" s="31" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1">
+      <c r="B28" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2">
         <v>22</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="2">
+        <v>19</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1496,14 +1646,18 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1">
+      <c r="B29" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2">
         <v>22</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="2">
+        <v>19</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1515,14 +1669,18 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="B30" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1534,14 +1692,18 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1">
+      <c r="B31" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2">
         <v>22</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="2">
+        <v>17</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1553,14 +1715,18 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1"/>
+      <c r="B32" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1572,14 +1738,18 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1">
+      <c r="B33" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1591,14 +1761,18 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1"/>
+      <c r="B34" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1610,14 +1784,18 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1"/>
+      <c r="B35" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1630,6 +1808,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="B25:N25"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
@@ -1646,17 +1835,6 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="C16:C23">
@@ -1758,205 +1936,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:W18"/>
+  <dimension ref="B2:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="6" width="9.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="6"/>
-    <col min="11" max="11" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.28515625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.7109375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="2.28515625" style="6" customWidth="1"/>
-    <col min="20" max="22" width="9.28515625" style="6"/>
-    <col min="23" max="23" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="6"/>
+    <col min="12" max="12" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="44" customWidth="1"/>
+    <col min="20" max="20" width="2.28515625" style="6" customWidth="1"/>
+    <col min="21" max="23" width="9.28515625" style="6"/>
+    <col min="24" max="24" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="52" t="s">
+    <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-    </row>
-    <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+    </row>
+    <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="57" t="s">
+      <c r="I6" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="51"/>
+      <c r="K6" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="N6" s="57" t="s">
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="O6" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="R6" s="14" t="s">
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="S6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="54" t="s">
+      <c r="U6" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="56"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="70"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="12" t="s">
+      <c r="D7" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="75"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" s="12" t="s">
+      <c r="S7" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="V7" s="12" t="s">
+      <c r="W7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="X7" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
-        <v>78</v>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>77</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
@@ -1964,55 +2149,50 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="9"/>
-      <c r="N8" s="2"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="9"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="T8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="9"/>
+      <c r="S8" s="41"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="9"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W8" s="2"/>
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="C9" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="5">
-        <v>2</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="16">
-        <f t="shared" ref="L9" si="0">IF(J9=0,0,(K9-J9)/J9)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <f t="shared" ref="P9" si="1">IF(N9=0,0,(O9-N9)/N9)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="16">
-        <f>IF((J9+N9)=0,1,((K9+O9)-(J9+N9))/(J9+N9))</f>
-        <v>1</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I9" s="45"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="14">
+        <f t="shared" ref="M9" si="0">IF(K9=0,0,(L9-K9)/K9)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="14">
+        <f t="shared" ref="Q9" si="1">IF(O9=0,0,(P9-O9)/O9)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="41">
+        <f>D9+E9+F9+G9+H9+I9+L9+P9</f>
+        <v>3</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2020,314 +2200,599 @@
       <c r="V9" s="2">
         <v>0</v>
       </c>
-      <c r="W9" s="9">
-        <f>SUM(T9:V9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <f>SUM(U9:W9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="16"/>
-      <c r="N10" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="45"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="14"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="16"/>
-      <c r="T10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="41">
+        <f t="shared" ref="S10:S24" si="2">D10+E10+F10+G10+H10+I10+L10+P10</f>
+        <v>0.5</v>
+      </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W10" s="2"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="C11" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="16"/>
-      <c r="N11" s="2"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="14"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="16"/>
-      <c r="T11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="9"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W11" s="2"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="17"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="18"/>
-      <c r="R12" s="9"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="18"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="14"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="45"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="14"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="9"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W13" s="2"/>
+      <c r="X13" s="9"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="16">
-        <f t="shared" ref="L14" si="2">IF(J14=0,0,(K14-J14)/J14)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>26</v>
-      </c>
-      <c r="P14" s="16">
-        <f>(O14-N14)/IF(N14=0,O14,N14)</f>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="16">
-        <f>IF((J14+N14)=0,1,((K14+O14)-(J14+N14))/(J14+N14))</f>
-        <v>1</v>
-      </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2">
-        <v>1</v>
+      <c r="C14" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="5">
+        <v>2</v>
+      </c>
+      <c r="I14" s="45"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="14"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="9"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="45"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="2">
+        <v>5</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" ref="M15" si="3">IF(K15=0,0,(L15-K15)/K15)</f>
+        <v>0</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="41">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="9"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W15" s="2"/>
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="16">
-        <f t="shared" ref="L16" si="3">IF(J16=0,0,(K16-J16)/J16)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>9</v>
-      </c>
-      <c r="P16" s="16">
-        <f>(O16-N16)/IF(N16=0,O16,N16)</f>
+      <c r="C16" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="17">
         <v>1</v>
       </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="16">
-        <f>IF((J16+N16)=0,1,((K16+O16)-(J16+N16))/(J16+N16))</f>
+      <c r="I16" s="46"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="15"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="41">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2">
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="16"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="46"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="15"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="41">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="16"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="9"/>
-    </row>
-    <row r="17" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21">
-        <f>SUM(D8:D16)</f>
+      <c r="E18" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="15"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="16"/>
+      <c r="S18" s="41">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="16"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="30"/>
+      <c r="C20" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="21">
-        <f>SUM(E8:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="21">
-        <f>SUM(F8:F16)</f>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="14">
+        <f t="shared" ref="M21" si="4">IF(K21=0,0,(L21-K21)/K21)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" ref="Q21" si="5">IF(O21=0,0,(P21-O21)/O21)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="41">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="16"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="7">
+        <v>21.5</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="41">
+        <f t="shared" si="2"/>
+        <v>21.5</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="16"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="41">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="16"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="16"/>
+    </row>
+    <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19">
+        <f>SUM(D8:D25)</f>
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E26" s="19">
+        <f t="shared" ref="E26:M26" si="6">SUM(E8:E25)</f>
+        <v>14.5</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="G17" s="21">
-        <f>SUM(G8:G16)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="21">
-        <f>SUM(H8:H16)</f>
+      <c r="G26" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I26" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="51"/>
+      <c r="K26" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="19">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I17" s="21">
-        <f>SUM(I8:I16)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="21">
-        <f>SUM(J8:J16)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="21">
-        <f>SUM(K8:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="22">
-        <f t="shared" ref="L17" si="4">IF(J17=0,0,(K17-J17)/J17)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21">
-        <f>SUM(N8:N16)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="21">
-        <f>SUM(O8:O16)</f>
-        <v>35</v>
-      </c>
-      <c r="P17" s="22">
-        <f t="shared" ref="P17" si="5">IF(N17=0,0,(O17-N17)/N17)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21">
-        <f>SUM(T8:T16)</f>
-        <v>2</v>
-      </c>
-      <c r="U17" s="21">
-        <f>SUM(U8:U16)</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="21">
-        <f>SUM(V8:V16)</f>
-        <v>0</v>
-      </c>
-      <c r="W17" s="21">
-        <f>SUM(W8:W16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="M26" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19">
+        <f>SUM(O8:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="19">
+        <f>SUM(P8:P25)</f>
+        <v>16</v>
+      </c>
+      <c r="Q26" s="19">
+        <f>SUM(Q8:Q25)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="19"/>
+      <c r="S26" s="43">
+        <f>SUM(S8:S25)</f>
+        <v>88.7</v>
+      </c>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19">
+        <f>SUM(U8:U25)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="19">
+        <f>SUM(V8:V25)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="19">
+        <f>SUM(W8:W25)</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="19">
+        <f>SUM(X8:X25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B3:W3"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B3:X3"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="B4:X4"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <conditionalFormatting sqref="T9">
+  <conditionalFormatting sqref="U9:U13">
     <cfRule type="expression" priority="3">
-      <formula>T9/$W9</formula>
+      <formula>U9/$X9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hiqu/Performance Evaluation/September 2024/Dev/Abid Ali.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Abid Ali.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C2575F-38F0-4146-86A3-F6A6DBEAA180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E71BCD1-42ED-4590-9336-8ECC49702CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
-    <sheet name="September 24" sheetId="1" r:id="rId2"/>
+    <sheet name="Quarterly Evaluation" sheetId="3" r:id="rId2"/>
+    <sheet name="September 2024" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
   <si>
     <t>Employee Name</t>
   </si>
@@ -346,6 +347,18 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>Quarterly Evaluation (%)</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -439,11 +452,11 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="ARIAL"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +499,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -689,7 +714,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -745,7 +770,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -814,34 +838,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,6 +894,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1222,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
-  <dimension ref="B2:N35"/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E35"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,583 +1257,354 @@
     <col min="4" max="14" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="60" t="s">
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="60"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
+      <c r="C2" s="55"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="57">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.2657534246575342</v>
-      </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
+        <v>1.273972602739726</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="61" t="s">
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2">
         <v>21</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="33">
-        <v>0.95</v>
-      </c>
-      <c r="J16" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="34">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="J17" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="34">
-        <v>0.85</v>
-      </c>
+      <c r="D17" s="2">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="33">
-        <v>0.85</v>
-      </c>
-      <c r="J18" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="34">
-        <v>0.85</v>
-      </c>
+      <c r="B18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="J19" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="34">
-        <v>0.8</v>
-      </c>
+      <c r="B19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="J20" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="34">
-        <v>0.75</v>
-      </c>
+      <c r="B20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="51">
+        <v>18</v>
+      </c>
+      <c r="D20" s="51">
+        <v>22</v>
+      </c>
+      <c r="E20" s="51">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="33">
-        <v>0.95</v>
-      </c>
-      <c r="J21" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="34">
-        <v>0.8</v>
-      </c>
+      <c r="B21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="J22" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="34">
-        <v>0.75</v>
-      </c>
+      <c r="B22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="33"/>
-      <c r="J23" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="34">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="N27" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2">
-        <v>21</v>
-      </c>
-      <c r="D28" s="2">
-        <v>22</v>
-      </c>
-      <c r="E28" s="2">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="2">
-        <v>21</v>
-      </c>
-      <c r="D29" s="2">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2">
-        <v>18</v>
-      </c>
-      <c r="D31" s="2">
-        <v>22</v>
-      </c>
-      <c r="E31" s="2">
-        <v>17</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E24" s="2">
         <v>2</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="10">
+    <mergeCell ref="B14:N14"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B13:M13"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -1819,25 +1612,432 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C23">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1F740E-1903-449F-8B8A-EEA8B29E5435}">
+  <dimension ref="B3:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="32">
+        <v>0.95</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="32">
+        <v>0.85</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="32">
+        <v>0.95</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="25"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="33">
+        <v>0.85</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="33">
+        <v>0.85</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C28:E28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D6:D13">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{411E2786-C0C2-4266-B5C9-E29C019169F0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D25">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9C1CCE37-320D-4BB0-AA65-D7849B361570}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D37">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{50A06263-4348-42E0-90F3-3E449BB3B0B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E13">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B2FE4F3E-B75E-4149-AE72-606398A3B735}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E8065104-8085-4AC6-9803-B8B1CBB6692C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E37">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1207CE9B-97BF-4282-9AD5-A6F560CF2640}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C13">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1846,12 +2046,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8ED7C809-4161-453D-861A-B1F2027185E1}</x14:id>
+          <x14:id>{377B6C8B-C578-4636-819C-1CD0AF731411}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H23">
+  <conditionalFormatting sqref="C18:C25">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1860,12 +2060,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F993A1AA-1391-4454-AC37-722B0318BBC7}</x14:id>
+          <x14:id>{1ADC5BAE-3C08-4A0F-8770-A2335FF4F99D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:M23">
+  <conditionalFormatting sqref="C30:C37">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1874,7 +2074,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82510D55-FF1F-4134-BAE0-A237AF9545A9}</x14:id>
+          <x14:id>{C464B236-C0B3-44CE-9D55-7D928FA09958}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1884,7 +2084,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8ED7C809-4161-453D-861A-B1F2027185E1}">
+          <x14:cfRule type="dataBar" id="{411E2786-C0C2-4266-B5C9-E29C019169F0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1896,10 +2096,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C16:C23</xm:sqref>
+          <xm:sqref>D6:D13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F993A1AA-1391-4454-AC37-722B0318BBC7}">
+          <x14:cfRule type="dataBar" id="{9C1CCE37-320D-4BB0-AA65-D7849B361570}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1911,10 +2111,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16:H23</xm:sqref>
+          <xm:sqref>D18:D25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82510D55-FF1F-4134-BAE0-A237AF9545A9}">
+          <x14:cfRule type="dataBar" id="{50A06263-4348-42E0-90F3-3E449BB3B0B9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1926,7 +2126,97 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M16:M23</xm:sqref>
+          <xm:sqref>D30:D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B2FE4F3E-B75E-4149-AE72-606398A3B735}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E6:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E8065104-8085-4AC6-9803-B8B1CBB6692C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E18:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1207CE9B-97BF-4282-9AD5-A6F560CF2640}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E30:E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{377B6C8B-C578-4636-819C-1CD0AF731411}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C6:C13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1ADC5BAE-3C08-4A0F-8770-A2335FF4F99D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C18:C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C464B236-C0B3-44CE-9D55-7D928FA09958}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C30:C37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1934,12 +2224,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,92 +2250,92 @@
     <col min="16" max="16" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="44" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="43" customWidth="1"/>
     <col min="20" max="20" width="2.28515625" style="6" customWidth="1"/>
     <col min="21" max="23" width="9.28515625" style="6"/>
     <col min="24" max="24" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -2054,58 +2344,58 @@
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="74" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="70" t="s">
+      <c r="J6" s="50"/>
+      <c r="K6" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="O6" s="71" t="s">
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="O6" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="S6" s="39" t="s">
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="S6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="70"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="65"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="36" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="35" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="12" t="s">
@@ -2123,7 +2413,7 @@
       <c r="Q7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="40" t="s">
+      <c r="S7" s="39" t="s">
         <v>102</v>
       </c>
       <c r="U7" s="12" t="s">
@@ -2140,7 +2430,7 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="1"/>
@@ -2149,15 +2439,15 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="51"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="5"/>
       <c r="L8" s="2"/>
       <c r="M8" s="9"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="9"/>
-      <c r="S8" s="41"/>
+      <c r="S8" s="40"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -2165,18 +2455,18 @@
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="5">
         <v>3</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="51"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="5"/>
       <c r="L9" s="2"/>
       <c r="M9" s="14">
@@ -2190,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="8"/>
-      <c r="S9" s="41">
+      <c r="S9" s="40">
         <f>D9+E9+F9+G9+H9+I9+L9+P9</f>
         <v>3</v>
       </c>
@@ -2210,18 +2500,18 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="5">
         <v>0.5</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="51"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="5"/>
       <c r="L10" s="2"/>
       <c r="M10" s="14"/>
@@ -2229,7 +2519,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="41">
+      <c r="S10" s="40">
         <f t="shared" ref="S10:S24" si="2">D10+E10+F10+G10+H10+I10+L10+P10</f>
         <v>0.5</v>
       </c>
@@ -2240,18 +2530,18 @@
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="51"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="50"/>
       <c r="K11" s="5"/>
       <c r="L11" s="2"/>
       <c r="M11" s="14"/>
@@ -2259,7 +2549,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="41">
+      <c r="S11" s="40">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -2270,18 +2560,18 @@
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="51"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="50"/>
       <c r="K12" s="5"/>
       <c r="L12" s="2"/>
       <c r="M12" s="14"/>
@@ -2289,7 +2579,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="41">
+      <c r="S12" s="40">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2300,18 +2590,18 @@
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="5">
         <v>2</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="51"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="50"/>
       <c r="K13" s="5"/>
       <c r="L13" s="2"/>
       <c r="M13" s="14"/>
@@ -2319,7 +2609,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="41">
+      <c r="S13" s="40">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -2330,18 +2620,18 @@
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="51"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="5"/>
       <c r="L14" s="2"/>
       <c r="M14" s="14"/>
@@ -2349,7 +2639,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="41">
+      <c r="S14" s="40">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -2360,18 +2650,18 @@
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="5">
         <v>5</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="51"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="5"/>
       <c r="L15" s="2">
         <v>5</v>
@@ -2384,7 +2674,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="41">
+      <c r="S15" s="40">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -2395,18 +2685,18 @@
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="17">
         <v>1</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="51"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="17"/>
       <c r="L16" s="7"/>
       <c r="M16" s="15"/>
@@ -2414,7 +2704,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="41">
+      <c r="S16" s="40">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2425,18 +2715,18 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="17">
         <v>0.5</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="51"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="17"/>
       <c r="L17" s="7"/>
       <c r="M17" s="15"/>
@@ -2444,7 +2734,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="8"/>
-      <c r="S17" s="41">
+      <c r="S17" s="40">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -2469,15 +2759,15 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="51"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="50"/>
       <c r="K18" s="17"/>
       <c r="L18" s="7"/>
       <c r="M18" s="15"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="16"/>
-      <c r="S18" s="41">
+      <c r="S18" s="40">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -2487,7 +2777,7 @@
       <c r="X18" s="16"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="1"/>
@@ -2496,8 +2786,8 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="51"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="50"/>
       <c r="K19" s="5"/>
       <c r="L19" s="2"/>
       <c r="M19" s="9"/>
@@ -2506,7 +2796,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="41"/>
+      <c r="S19" s="40"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -2514,8 +2804,8 @@
       <c r="X19" s="9"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="37" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="36" t="s">
         <v>98</v>
       </c>
       <c r="D20" s="2"/>
@@ -2525,8 +2815,8 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="51"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="50"/>
       <c r="K20" s="5"/>
       <c r="L20" s="2"/>
       <c r="M20" s="9"/>
@@ -2535,7 +2825,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="41">
+      <c r="S20" s="40">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2555,8 +2845,8 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="51"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="50"/>
       <c r="K21" s="5"/>
       <c r="L21" s="2"/>
       <c r="M21" s="14">
@@ -2573,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="2"/>
-      <c r="S21" s="41">
+      <c r="S21" s="40">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -2593,8 +2883,8 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="51"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="50"/>
       <c r="K22" s="17"/>
       <c r="L22" s="7"/>
       <c r="M22" s="15"/>
@@ -2603,7 +2893,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="41"/>
+      <c r="S22" s="40"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -2612,7 +2902,7 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="7">
@@ -2622,8 +2912,8 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="51"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="50"/>
       <c r="K23" s="17"/>
       <c r="L23" s="7"/>
       <c r="M23" s="15"/>
@@ -2632,7 +2922,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="41">
+      <c r="S23" s="40">
         <f t="shared" si="2"/>
         <v>21.5</v>
       </c>
@@ -2644,7 +2934,7 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="37" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="7">
@@ -2654,8 +2944,8 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="50"/>
       <c r="K24" s="17"/>
       <c r="L24" s="7"/>
       <c r="M24" s="15"/>
@@ -2664,7 +2954,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="41">
+      <c r="S24" s="40">
         <f t="shared" si="2"/>
         <v>11.2</v>
       </c>
@@ -2682,8 +2972,8 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="51"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="50"/>
       <c r="K25" s="17"/>
       <c r="L25" s="7"/>
       <c r="M25" s="15"/>
@@ -2692,7 +2982,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="42"/>
+      <c r="S25" s="41"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -2700,7 +2990,7 @@
       <c r="X25" s="16"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="18"/>
@@ -2724,12 +3014,12 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="I26" s="49">
+      <c r="I26" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="50">
+      <c r="J26" s="50"/>
+      <c r="K26" s="49">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2755,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="19"/>
-      <c r="S26" s="43">
+      <c r="S26" s="42">
         <f>SUM(S8:S25)</f>
         <v>88.7</v>
       </c>

--- a/hiqu/Performance Evaluation/September 2024/Dev/Abid Ali.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Abid Ali.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E71BCD1-42ED-4590-9336-8ECC49702CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C39BC72-4755-442F-A5E5-A9F58AD380FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>Employee Name</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Overall Commitment</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Database understanding</t>
   </si>
   <si>
@@ -352,13 +349,16 @@
     <t>Quarterly Evaluation (%)</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
+    <t>Jul-Sep</t>
+  </si>
+  <si>
+    <t>Oct-Dec</t>
+  </si>
+  <si>
+    <t>Jan-Mar</t>
+  </si>
+  <si>
+    <t>Performance Evaluation</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -763,7 +763,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,9 +846,7 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -857,47 +854,66 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -925,6 +941,1644 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Attendance and Punctuality</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Working Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$13:$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07EF-41E9-95EA-BFB68AD14E9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Employee Working Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$13:$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-07EF-41E9-95EA-BFB68AD14E9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$13:$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$16:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-07EF-41E9-95EA-BFB68AD14E9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Days Worked over 8 hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$13:$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$17:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-07EF-41E9-95EA-BFB68AD14E9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Days Worked under 8 hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$13:$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-07EF-41E9-95EA-BFB68AD14E9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weekends</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$13:$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$19:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-07EF-41E9-95EA-BFB68AD14E9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Late Arrivals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$13:$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$20:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-07EF-41E9-95EA-BFB68AD14E9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Short Leaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$13:$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$21:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-07EF-41E9-95EA-BFB68AD14E9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="647740943"/>
+        <c:axId val="647752943"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="647740943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647752943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="647752943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647740943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C70F26-8116-1CB0-6C11-0ADF83CE224B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1244,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
-  <dimension ref="B2:N24"/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,30 +2912,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="55"/>
+      <c r="B2" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="54"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
+      <c r="C5" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -1289,11 +2943,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="C6" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -1301,11 +2955,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
+      <c r="C7" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -1313,11 +2967,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1325,109 +2979,162 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="C9" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="57">
+        <v>59</v>
+      </c>
+      <c r="C10" s="56">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.273972602739726</v>
-      </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+        <v>1.2767123287671234</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="C11" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+    <row r="12" spans="2:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
+      <c r="C13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="50">
+        <v>18</v>
+      </c>
+      <c r="D17" s="50">
         <v>22</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2">
-        <v>22</v>
-      </c>
-      <c r="E17" s="2">
-        <v>19</v>
+      <c r="E17" s="50">
+        <v>17</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1440,17 +3147,17 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
-        <v>31</v>
+      <c r="B18" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1463,14 +3170,14 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
-        <v>23</v>
+      <c r="B19" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1486,17 +3193,17 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="51">
-        <v>18</v>
-      </c>
-      <c r="D20" s="51">
-        <v>22</v>
-      </c>
-      <c r="E20" s="51">
-        <v>17</v>
+      <c r="B20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1509,8 +3216,8 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
-        <v>28</v>
+      <c r="B21" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
@@ -1531,78 +3238,8 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B14:N14"/>
+  <mergeCells count="9">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C5:E5"/>
@@ -1614,347 +3251,449 @@
     <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="formula" val="$C$15/$C$14"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{49A6935B-5EF4-4E13-B932-F95444253702}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{49A6935B-5EF4-4E13-B932-F95444253702}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$15/$C$14</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C15</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1F740E-1903-449F-8B8A-EEA8B29E5435}">
-  <dimension ref="B3:M37"/>
+  <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="6" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="71" t="s">
+    <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+    </row>
+    <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="73"/>
+      <c r="C4" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C7" s="31">
         <v>0.9</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C8" s="31">
         <v>0.8</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C9" s="31">
         <v>0.9</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C10" s="31">
         <v>0.9</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C11" s="31">
         <v>0.9</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C12" s="31">
         <v>0.9</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C14" s="31">
         <v>0.8</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="32">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="31">
         <v>0.8</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="32">
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="31">
         <v>0.95</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="32">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="31">
         <v>0.8</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="32">
-        <v>0.85</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="24"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="32">
-        <v>0.95</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="32"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="32">
+        <v>0.9</v>
+      </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="52" t="s">
+      <c r="F25" s="32"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="32">
+        <v>0.85</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="33">
+      <c r="C27" s="32">
         <v>0.85</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="52" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="33">
-        <v>0.85</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="52" t="s">
+      <c r="C28" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C29" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="32">
         <v>0.8</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="33">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="32">
         <v>0.75</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="52" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C32" s="32">
         <v>0.75</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C28:E28"/>
+  <mergeCells count="5">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D13">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="C7:C14">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{377B6C8B-C578-4636-819C-1CD0AF731411}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C23">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1ADC5BAE-3C08-4A0F-8770-A2335FF4F99D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C32">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C464B236-C0B3-44CE-9D55-7D928FA09958}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D14">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1967,8 +3706,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D25">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="D16:D23">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1981,8 +3720,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D37">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="D25:D32">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1995,8 +3734,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E13">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="E7:E14">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -2009,8 +3748,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E25">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="E16:E23">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -2023,8 +3762,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E37">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="E25:E32">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -2037,7 +3776,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C13">
+  <conditionalFormatting sqref="F7:F14">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -2046,12 +3785,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{377B6C8B-C578-4636-819C-1CD0AF731411}</x14:id>
+          <x14:id>{E09DB4F6-78AD-4952-8C50-B48DF61CEDF9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C25">
+  <conditionalFormatting sqref="F16:F23">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -2060,12 +3799,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1ADC5BAE-3C08-4A0F-8770-A2335FF4F99D}</x14:id>
+          <x14:id>{58626E05-CBB0-4FA4-A057-BDD7E02790D6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C37">
+  <conditionalFormatting sqref="F25:F32">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2074,15 +3813,61 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C464B236-C0B3-44CE-9D55-7D928FA09958}</x14:id>
+          <x14:id>{62DBC072-F65A-4B29-AAF7-E7F1D206E51A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{377B6C8B-C578-4636-819C-1CD0AF731411}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C7:C14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1ADC5BAE-3C08-4A0F-8770-A2335FF4F99D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C16:C23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C464B236-C0B3-44CE-9D55-7D928FA09958}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C25:C32</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{411E2786-C0C2-4266-B5C9-E29C019169F0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -2096,7 +3881,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D13</xm:sqref>
+          <xm:sqref>D7:D14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9C1CCE37-320D-4BB0-AA65-D7849B361570}">
@@ -2111,7 +3896,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D18:D25</xm:sqref>
+          <xm:sqref>D16:D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{50A06263-4348-42E0-90F3-3E449BB3B0B9}">
@@ -2126,7 +3911,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30:D37</xm:sqref>
+          <xm:sqref>D25:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B2FE4F3E-B75E-4149-AE72-606398A3B735}">
@@ -2141,7 +3926,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E6:E13</xm:sqref>
+          <xm:sqref>E7:E14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E8065104-8085-4AC6-9803-B8B1CBB6692C}">
@@ -2156,7 +3941,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E18:E25</xm:sqref>
+          <xm:sqref>E16:E23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1207CE9B-97BF-4282-9AD5-A6F560CF2640}">
@@ -2171,10 +3956,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E30:E37</xm:sqref>
+          <xm:sqref>E25:E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{377B6C8B-C578-4636-819C-1CD0AF731411}">
+          <x14:cfRule type="dataBar" id="{E09DB4F6-78AD-4952-8C50-B48DF61CEDF9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -2186,10 +3971,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C6:C13</xm:sqref>
+          <xm:sqref>F7:F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1ADC5BAE-3C08-4A0F-8770-A2335FF4F99D}">
+          <x14:cfRule type="dataBar" id="{58626E05-CBB0-4FA4-A057-BDD7E02790D6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -2201,10 +3986,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C18:C25</xm:sqref>
+          <xm:sqref>F16:F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C464B236-C0B3-44CE-9D55-7D928FA09958}">
+          <x14:cfRule type="dataBar" id="{62DBC072-F65A-4B29-AAF7-E7F1D206E51A}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -2216,7 +4001,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C30:C37</xm:sqref>
+          <xm:sqref>F25:F32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2250,92 +4035,92 @@
     <col min="16" max="16" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="43" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="42" customWidth="1"/>
     <col min="20" max="20" width="2.28515625" style="6" customWidth="1"/>
     <col min="21" max="23" width="9.28515625" style="6"/>
     <col min="24" max="24" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
+      <c r="B3" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
+      <c r="B4" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -2344,58 +4129,58 @@
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="69" t="s">
+      <c r="D6" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="65" t="s">
+      <c r="J6" s="49"/>
+      <c r="K6" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="O6" s="66" t="s">
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="O6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="S6" s="38" t="s">
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="S6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="65"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="63"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="35" t="s">
+      <c r="H7" s="68"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="34" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="12" t="s">
@@ -2413,8 +4198,8 @@
       <c r="Q7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="39" t="s">
-        <v>102</v>
+      <c r="S7" s="38" t="s">
+        <v>101</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>29</v>
@@ -2430,8 +4215,8 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>77</v>
+      <c r="B8" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
@@ -2439,15 +4224,15 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="50"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="5"/>
       <c r="L8" s="2"/>
       <c r="M8" s="9"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="9"/>
-      <c r="S8" s="40"/>
+      <c r="S8" s="39"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -2455,18 +4240,18 @@
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="C9" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="5">
         <v>3</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="50"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="5"/>
       <c r="L9" s="2"/>
       <c r="M9" s="14">
@@ -2480,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="8"/>
-      <c r="S9" s="40">
+      <c r="S9" s="39">
         <f>D9+E9+F9+G9+H9+I9+L9+P9</f>
         <v>3</v>
       </c>
@@ -2500,18 +4285,18 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="C10" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="5">
         <v>0.5</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="50"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="49"/>
       <c r="K10" s="5"/>
       <c r="L10" s="2"/>
       <c r="M10" s="14"/>
@@ -2519,7 +4304,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="40">
+      <c r="S10" s="39">
         <f t="shared" ref="S10:S24" si="2">D10+E10+F10+G10+H10+I10+L10+P10</f>
         <v>0.5</v>
       </c>
@@ -2530,18 +4315,18 @@
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="C11" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="50"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="49"/>
       <c r="K11" s="5"/>
       <c r="L11" s="2"/>
       <c r="M11" s="14"/>
@@ -2549,7 +4334,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="40">
+      <c r="S11" s="39">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -2560,18 +4345,18 @@
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="C12" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="50"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="5"/>
       <c r="L12" s="2"/>
       <c r="M12" s="14"/>
@@ -2579,7 +4364,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="40">
+      <c r="S12" s="39">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2590,18 +4375,18 @@
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="C13" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="5">
         <v>2</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="50"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="49"/>
       <c r="K13" s="5"/>
       <c r="L13" s="2"/>
       <c r="M13" s="14"/>
@@ -2609,7 +4394,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="40">
+      <c r="S13" s="39">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -2620,18 +4405,18 @@
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="C14" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="50"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="5"/>
       <c r="L14" s="2"/>
       <c r="M14" s="14"/>
@@ -2639,7 +4424,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="40">
+      <c r="S14" s="39">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -2650,18 +4435,18 @@
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="C15" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="5">
         <v>5</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="50"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="5"/>
       <c r="L15" s="2">
         <v>5</v>
@@ -2674,7 +4459,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="40">
+      <c r="S15" s="39">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -2685,18 +4470,18 @@
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="17">
         <v>1</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="50"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="17"/>
       <c r="L16" s="7"/>
       <c r="M16" s="15"/>
@@ -2704,7 +4489,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="40">
+      <c r="S16" s="39">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2715,18 +4500,18 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="C17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="17">
         <v>0.5</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="17"/>
       <c r="L17" s="7"/>
       <c r="M17" s="15"/>
@@ -2734,7 +4519,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="8"/>
-      <c r="S17" s="40">
+      <c r="S17" s="39">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -2746,7 +4531,7 @@
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2759,15 +4544,15 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="50"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="49"/>
       <c r="K18" s="17"/>
       <c r="L18" s="7"/>
       <c r="M18" s="15"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="16"/>
-      <c r="S18" s="40">
+      <c r="S18" s="39">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -2777,8 +4562,8 @@
       <c r="X18" s="16"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
-        <v>73</v>
+      <c r="B19" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -2786,8 +4571,8 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="50"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="49"/>
       <c r="K19" s="5"/>
       <c r="L19" s="2"/>
       <c r="M19" s="9"/>
@@ -2796,7 +4581,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="40"/>
+      <c r="S19" s="39"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -2804,9 +4589,9 @@
       <c r="X19" s="9"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="36" t="s">
-        <v>98</v>
+      <c r="B20" s="28"/>
+      <c r="C20" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
@@ -2815,8 +4600,8 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="50"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="49"/>
       <c r="K20" s="5"/>
       <c r="L20" s="2"/>
       <c r="M20" s="9"/>
@@ -2825,7 +4610,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="40">
+      <c r="S20" s="39">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2838,15 +4623,15 @@
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="50"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="5"/>
       <c r="L21" s="2"/>
       <c r="M21" s="14">
@@ -2863,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="2"/>
-      <c r="S21" s="40">
+      <c r="S21" s="39">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -2874,8 +4659,8 @@
       <c r="X21" s="9"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
-        <v>99</v>
+      <c r="B22" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="7"/>
@@ -2883,8 +4668,8 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="50"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="49"/>
       <c r="K22" s="17"/>
       <c r="L22" s="7"/>
       <c r="M22" s="15"/>
@@ -2893,7 +4678,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="40"/>
+      <c r="S22" s="39"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -2902,8 +4687,8 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="37" t="s">
-        <v>100</v>
+      <c r="C23" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="D23" s="7">
         <v>21.5</v>
@@ -2912,8 +4697,8 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="50"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="49"/>
       <c r="K23" s="17"/>
       <c r="L23" s="7"/>
       <c r="M23" s="15"/>
@@ -2922,7 +4707,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="40">
+      <c r="S23" s="39">
         <f t="shared" si="2"/>
         <v>21.5</v>
       </c>
@@ -2934,8 +4719,8 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="37" t="s">
-        <v>101</v>
+      <c r="C24" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="D24" s="7">
         <v>11.2</v>
@@ -2944,8 +4729,8 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="50"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="49"/>
       <c r="K24" s="17"/>
       <c r="L24" s="7"/>
       <c r="M24" s="15"/>
@@ -2954,7 +4739,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="40">
+      <c r="S24" s="39">
         <f t="shared" si="2"/>
         <v>11.2</v>
       </c>
@@ -2972,8 +4757,8 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="50"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="17"/>
       <c r="L25" s="7"/>
       <c r="M25" s="15"/>
@@ -2982,7 +4767,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="41"/>
+      <c r="S25" s="40"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -2990,7 +4775,7 @@
       <c r="X25" s="16"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="18"/>
@@ -3014,12 +4799,12 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J26" s="50"/>
-      <c r="K26" s="49">
+      <c r="J26" s="49"/>
+      <c r="K26" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -3045,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="19"/>
-      <c r="S26" s="42">
+      <c r="S26" s="41">
         <f>SUM(S8:S25)</f>
         <v>88.7</v>
       </c>
